--- a/biology/Histoire de la zoologie et de la botanique/Edward_Oliver_Essig/Edward_Oliver_Essig.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Oliver_Essig/Edward_Oliver_Essig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Oliver Essig est un entomologiste américain, né le 29 septembre 1884 à Arcadia, Indiana et mort le 23 novembre 1964 à Lafayette (Californie).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spécialiste des hémiptères, Essig est professeur à l’université de Californie. Il est l’auteur, notamment, de Injurious and Beneficial Insects of California (1913), Insects of Western North America (1926), A History of Entomology (1931), College Entomology (1942) et de plusieurs centaines de publications sur les hémiptères. Un musée d’entomologie, l’Essig Museum of Entomology, lui a été dédié à l'université de Berkeley[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spécialiste des hémiptères, Essig est professeur à l’université de Californie. Il est l’auteur, notamment, de Injurious and Beneficial Insects of California (1913), Insects of Western North America (1926), A History of Entomology (1931), College Entomology (1942) et de plusieurs centaines de publications sur les hémiptères. Un musée d’entomologie, l’Essig Museum of Entomology, lui a été dédié à l'université de Berkeley.
 Passionné par l’horticulture, il est l’auteur d’A check-list of Fuchsias et est membre de l’American Fuchsia Society (1936).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 5 janvier 2008).</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ http://essig.berkeley.edu/ (consultation du 22 juillet 2012).
